--- a/data/family_data_filled_gen.xlsx
+++ b/data/family_data_filled_gen.xlsx
@@ -1904,17 +1904,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Anna's kid1</t>
+          <t>Unia</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Unia</t>
+          <t>Юния</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Юния</t>
+          <t>Жукова</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anna's kid2</t>
+          <t>Elina</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Elina</t>
+          <t>Элина</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Элина</t>
+          <t>Жукова</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">

--- a/data/family_data_filled_gen.xlsx
+++ b/data/family_data_filled_gen.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>leonid.png</t>
+          <t>id1-leonid.png</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>elena.png</t>
+          <t>id2-elena.png</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>sergey.png</t>
+          <t>id3-sergey.png</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ms.png</t>
+          <t>id5-maksim.png</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>sophia.png</t>
+          <t>id6-sophia.png</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,11 @@
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>id7-sviatik.png</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1211,7 +1215,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>milana.png</t>
+          <t>id11-milana.png</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2163,11 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>id29-lilina.png</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2241,7 +2249,11 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>id31-sofia.png</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,7 +2292,11 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>id32-vasilii.png</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2321,7 +2337,11 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>id33-fedor.png</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2366,7 +2386,11 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>id34-lelia.png</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2407,7 +2431,11 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>id35-nikolay.png</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2514,7 +2542,11 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>id38-ivan.png</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3006,8 +3038,16 @@
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Фотография Каземира сделана  в г. Ровны в 1928 году</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>id51-kazimir.png</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3044,7 +3084,11 @@
           <t>Наша мама о нём отзывалась как об очень мудром и умном человеком.</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>id52-fedor.png</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
